--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქედა.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქედა.xlsx
@@ -1,30 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატისტიკა\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82138C9-2B29-4CC8-8464-029196936CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="11385" yWindow="240" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქედა" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+  <si>
+    <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ქედის მუნიციპალიტეტში</t>
+  </si>
+  <si>
+    <t>(სასწავლო წლის დასაწყისისთვის)</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
   <si>
     <t>2017/2018</t>
   </si>
@@ -39,6 +62,45 @@
   </si>
   <si>
     <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>სკოლების რაოდენობა (ერთეული)</t>
+  </si>
+  <si>
+    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:   გოგო</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               ბიჭი</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა 1000 მოსახლეზე;</t>
+  </si>
+  <si>
+    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:    ქალი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               კაცი</t>
+  </si>
+  <si>
+    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
   </si>
   <si>
     <r>
@@ -48,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -57,105 +119,76 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
   </si>
-  <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>─</t>
-  </si>
-  <si>
-    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
-  </si>
-  <si>
-    <t>(სასწავლო წლის დასაწყისისთვის)</t>
-  </si>
-  <si>
-    <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ქედის მუნიციპალიტეტში</t>
-  </si>
-  <si>
-    <t>სკოლების რაოდენობა (ერთეული)</t>
-  </si>
-  <si>
-    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
-  </si>
-  <si>
-    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="167" formatCode=".\ #;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -163,22 +196,10 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +210,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14996795556505021"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,7 +232,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,10 +240,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -224,7 +251,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -233,44 +260,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,147 +596,152 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="2" customWidth="1"/>
-    <col min="2" max="13" width="12.42578125" style="1" customWidth="1"/>
-    <col min="14" max="18" width="12" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="36.7109375" style="1" customWidth="1"/>
+    <col min="2" max="15" width="10.7109375" style="2" customWidth="1"/>
+    <col min="16" max="18" width="12" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" ht="51" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="9">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9">
+        <v>29</v>
+      </c>
+      <c r="I4" s="9">
+        <v>29</v>
+      </c>
+      <c r="J4" s="9">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9">
+        <v>29</v>
+      </c>
+      <c r="L4" s="9">
+        <v>29</v>
+      </c>
+      <c r="M4" s="9">
+        <v>29</v>
+      </c>
+      <c r="N4" s="9">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="10">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10">
-        <v>29</v>
-      </c>
-      <c r="D4" s="10">
-        <v>29</v>
-      </c>
-      <c r="E4" s="10">
-        <v>29</v>
-      </c>
-      <c r="F4" s="10">
-        <v>29</v>
-      </c>
-      <c r="G4" s="10">
-        <v>29</v>
-      </c>
-      <c r="H4" s="10">
-        <v>29</v>
-      </c>
-      <c r="I4" s="10">
-        <v>29</v>
-      </c>
-      <c r="J4" s="10">
-        <v>29</v>
-      </c>
-      <c r="K4" s="10">
-        <v>29</v>
-      </c>
-      <c r="L4" s="10">
-        <v>29</v>
-      </c>
-      <c r="M4" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="B5" s="11">
         <v>2882</v>
@@ -720,71 +779,366 @@
       <c r="M5" s="11">
         <v>2064</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="N5" s="11">
+        <v>2021</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14">
+        <v>151</v>
+      </c>
+      <c r="D6" s="14">
+        <v>188</v>
+      </c>
+      <c r="E6" s="15">
+        <v>129</v>
+      </c>
+      <c r="F6" s="15">
+        <v>175</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1706</v>
+      </c>
+      <c r="H6" s="15">
+        <v>177</v>
+      </c>
+      <c r="I6" s="15">
+        <v>163</v>
+      </c>
+      <c r="J6" s="15">
+        <v>203</v>
+      </c>
+      <c r="K6" s="15">
+        <v>174</v>
+      </c>
+      <c r="L6" s="15">
+        <v>155</v>
+      </c>
+      <c r="M6" s="15">
+        <v>165</v>
+      </c>
+      <c r="N6" s="15">
+        <v>188</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2">
+        <v>90</v>
+      </c>
+      <c r="E7" s="2">
+        <v>56</v>
+      </c>
+      <c r="F7" s="16">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2">
+        <v>872</v>
+      </c>
+      <c r="H7" s="11">
+        <v>79</v>
+      </c>
+      <c r="I7" s="11">
+        <v>80</v>
+      </c>
+      <c r="J7" s="11">
+        <v>101</v>
+      </c>
+      <c r="K7" s="11">
+        <v>81</v>
+      </c>
+      <c r="L7" s="11">
+        <v>72</v>
+      </c>
+      <c r="M7" s="11">
+        <v>74</v>
+      </c>
+      <c r="N7" s="11">
+        <v>83</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2">
+        <v>73</v>
+      </c>
+      <c r="F8" s="16">
+        <v>98</v>
+      </c>
+      <c r="G8" s="2">
+        <v>853</v>
+      </c>
+      <c r="H8" s="2">
+        <v>98</v>
+      </c>
+      <c r="I8" s="2">
+        <v>83</v>
+      </c>
+      <c r="J8" s="11">
+        <v>102</v>
+      </c>
+      <c r="K8" s="11">
+        <v>93</v>
+      </c>
+      <c r="L8" s="11">
+        <v>83</v>
+      </c>
+      <c r="M8" s="11">
+        <v>91</v>
+      </c>
+      <c r="N8" s="11">
+        <v>105</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29.25" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="25">
+        <v>9.1</v>
+      </c>
+      <c r="D9" s="25">
+        <v>11.3</v>
+      </c>
+      <c r="E9" s="25">
+        <v>7.7</v>
+      </c>
+      <c r="F9" s="25">
+        <v>10.5</v>
+      </c>
+      <c r="G9" s="25">
+        <v>11.5</v>
+      </c>
+      <c r="H9" s="25">
+        <v>10.6</v>
+      </c>
+      <c r="I9" s="25">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J9" s="25">
+        <v>12.1</v>
+      </c>
+      <c r="K9" s="25">
+        <v>10.3</v>
+      </c>
+      <c r="L9" s="25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M9" s="25">
+        <v>9.9</v>
+      </c>
+      <c r="N9" s="25">
+        <v>11.3427252707472</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="11">
         <v>606</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I10" s="11">
         <v>595</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J10" s="11">
         <v>593</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K10" s="11">
         <v>579</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L10" s="11">
         <v>564</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M10" s="11">
         <v>572</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="N10" s="11">
+        <v>566</v>
+      </c>
+      <c r="O10" s="11">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="16">
+        <v>451</v>
+      </c>
+      <c r="I11" s="16">
+        <v>441</v>
+      </c>
+      <c r="J11" s="16">
+        <v>443</v>
+      </c>
+      <c r="K11" s="16">
+        <v>440</v>
+      </c>
+      <c r="L11" s="16">
+        <v>427</v>
+      </c>
+      <c r="M11" s="16">
+        <v>434</v>
+      </c>
+      <c r="N11" s="11">
+        <v>432</v>
+      </c>
+      <c r="O11" s="11">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="19">
+        <v>155</v>
+      </c>
+      <c r="I12" s="19">
+        <v>154</v>
+      </c>
+      <c r="J12" s="19">
+        <v>150</v>
+      </c>
+      <c r="K12" s="19">
+        <v>139</v>
+      </c>
+      <c r="L12" s="19">
+        <v>137</v>
+      </c>
+      <c r="M12" s="19">
+        <v>138</v>
+      </c>
+      <c r="N12" s="19">
+        <v>134</v>
+      </c>
+      <c r="O12" s="22">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="O14" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქედა.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქედა.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82138C9-2B29-4CC8-8464-029196936CB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51F4F39-CA9D-4ED9-84C9-422FE8A85F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="240" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქედა" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ქედის მუნიციპალიტეტში</t>
   </si>
@@ -76,16 +76,22 @@
     <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
   </si>
   <si>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:   გოგო</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               ბიჭი</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
     <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    მათ შორის:   გოგო</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               ბიჭი</t>
   </si>
   <si>
     <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა 1000 მოსახლეზე;</t>
@@ -110,7 +116,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,7 +125,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
@@ -131,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode=".\ #;"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,49 +152,70 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Sylfaen"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -196,7 +223,19 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -215,7 +254,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor theme="0" tint="-0.14993743705557422"/>
       </patternFill>
     </fill>
   </fills>
@@ -260,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -273,46 +312,55 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -320,12 +368,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +659,7 @@
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51" customHeight="1">
+    <row r="1" spans="1:17" ht="51" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -630,7 +676,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -647,7 +693,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1">
+    <row r="3" spans="1:17" ht="21" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -676,469 +722,878 @@
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1">
+    <row r="4" spans="1:17" ht="21" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="23">
         <v>29</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="23">
         <v>29</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="23">
         <v>29</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="23">
         <v>29</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="23">
         <v>29</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="23">
         <v>29</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="23">
         <v>29</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="23">
         <v>29</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="23">
         <v>29</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="23">
         <v>29</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="23">
         <v>29</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="23">
         <v>29</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="23">
         <v>29</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="24">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:17" ht="21" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="21">
         <v>2882</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="21">
         <v>2730</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="21">
         <v>2641</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="21">
         <v>2507</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="21">
         <v>2424</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="21">
         <v>2291</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="21">
         <v>2268</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="21">
         <v>2202</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="21">
         <v>2172</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="21">
         <v>2107</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="21">
         <v>2079</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="21">
         <v>2064</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="21">
         <v>2021</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="21">
         <v>1960</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30.75" customHeight="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:17" ht="30">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14">
-        <v>151</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="28">
+        <v>231</v>
+      </c>
+      <c r="D6" s="28">
+        <v>245</v>
+      </c>
+      <c r="E6" s="24">
+        <v>219</v>
+      </c>
+      <c r="F6" s="24">
+        <v>185</v>
+      </c>
+      <c r="G6" s="24">
+        <v>174</v>
+      </c>
+      <c r="H6" s="24">
+        <v>197</v>
+      </c>
+      <c r="I6" s="24">
+        <v>170</v>
+      </c>
+      <c r="J6" s="24">
+        <v>162</v>
+      </c>
+      <c r="K6" s="24">
+        <v>145</v>
+      </c>
+      <c r="L6" s="24">
+        <v>159</v>
+      </c>
+      <c r="M6" s="24">
+        <v>196</v>
+      </c>
+      <c r="N6" s="24">
+        <v>174</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="21" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="28">
+        <v>116</v>
+      </c>
+      <c r="D7" s="28">
+        <v>117</v>
+      </c>
+      <c r="E7" s="24">
+        <v>100</v>
+      </c>
+      <c r="F7" s="24">
+        <v>86</v>
+      </c>
+      <c r="G7" s="24">
+        <v>78</v>
+      </c>
+      <c r="H7" s="24">
+        <v>86</v>
+      </c>
+      <c r="I7" s="24">
+        <v>72</v>
+      </c>
+      <c r="J7" s="24">
+        <v>70</v>
+      </c>
+      <c r="K7" s="24">
+        <v>69</v>
+      </c>
+      <c r="L7" s="24">
+        <v>69</v>
+      </c>
+      <c r="M7" s="24">
+        <v>93</v>
+      </c>
+      <c r="N7" s="24">
+        <v>85</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="21" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="28">
+        <v>115</v>
+      </c>
+      <c r="D8" s="28">
+        <v>128</v>
+      </c>
+      <c r="E8" s="24">
+        <v>119</v>
+      </c>
+      <c r="F8" s="24">
+        <v>99</v>
+      </c>
+      <c r="G8" s="24">
+        <v>96</v>
+      </c>
+      <c r="H8" s="24">
+        <v>111</v>
+      </c>
+      <c r="I8" s="24">
+        <v>98</v>
+      </c>
+      <c r="J8" s="24">
+        <v>92</v>
+      </c>
+      <c r="K8" s="24">
+        <v>76</v>
+      </c>
+      <c r="L8" s="24">
+        <v>90</v>
+      </c>
+      <c r="M8" s="24">
+        <v>103</v>
+      </c>
+      <c r="N8" s="24">
+        <v>89</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="30">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="28">
+        <v>278</v>
+      </c>
+      <c r="D9" s="28">
+        <v>288</v>
+      </c>
+      <c r="E9" s="24">
+        <v>238</v>
+      </c>
+      <c r="F9" s="24">
+        <v>215</v>
+      </c>
+      <c r="G9" s="24">
+        <v>223</v>
+      </c>
+      <c r="H9" s="24">
+        <v>210</v>
+      </c>
+      <c r="I9" s="24">
+        <v>170</v>
+      </c>
+      <c r="J9" s="24">
+        <v>185</v>
+      </c>
+      <c r="K9" s="24">
+        <v>199</v>
+      </c>
+      <c r="L9" s="24">
+        <v>169</v>
+      </c>
+      <c r="M9" s="24">
+        <v>160</v>
+      </c>
+      <c r="N9" s="24">
+        <v>142</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="21" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="28">
+        <v>132</v>
+      </c>
+      <c r="D10" s="28">
+        <v>132</v>
+      </c>
+      <c r="E10" s="24">
+        <v>111</v>
+      </c>
+      <c r="F10" s="24">
+        <v>109</v>
+      </c>
+      <c r="G10" s="24">
+        <v>106</v>
+      </c>
+      <c r="H10" s="24">
+        <v>97</v>
+      </c>
+      <c r="I10" s="24">
+        <v>76</v>
+      </c>
+      <c r="J10" s="24">
+        <v>82</v>
+      </c>
+      <c r="K10" s="24">
+        <v>89</v>
+      </c>
+      <c r="L10" s="24">
+        <v>71</v>
+      </c>
+      <c r="M10" s="24">
+        <v>69</v>
+      </c>
+      <c r="N10" s="24">
+        <v>67</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="21" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="28">
+        <v>146</v>
+      </c>
+      <c r="D11" s="28">
+        <v>156</v>
+      </c>
+      <c r="E11" s="24">
+        <v>127</v>
+      </c>
+      <c r="F11" s="24">
+        <v>106</v>
+      </c>
+      <c r="G11" s="24">
+        <v>117</v>
+      </c>
+      <c r="H11" s="24">
+        <v>113</v>
+      </c>
+      <c r="I11" s="24">
+        <v>94</v>
+      </c>
+      <c r="J11" s="24">
+        <v>103</v>
+      </c>
+      <c r="K11" s="24">
+        <v>110</v>
+      </c>
+      <c r="L11" s="24">
+        <v>98</v>
+      </c>
+      <c r="M11" s="24">
+        <v>91</v>
+      </c>
+      <c r="N11" s="24">
+        <v>75</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="28">
+        <v>153</v>
+      </c>
+      <c r="D12" s="28">
+        <v>184</v>
+      </c>
+      <c r="E12" s="24">
+        <v>125</v>
+      </c>
+      <c r="F12" s="24">
+        <v>175</v>
+      </c>
+      <c r="G12" s="24">
+        <v>193</v>
+      </c>
+      <c r="H12" s="24">
+        <v>178</v>
+      </c>
+      <c r="I12" s="24">
+        <v>163</v>
+      </c>
+      <c r="J12" s="24">
+        <v>203</v>
+      </c>
+      <c r="K12" s="24">
+        <v>176</v>
+      </c>
+      <c r="L12" s="24">
+        <v>155</v>
+      </c>
+      <c r="M12" s="24">
+        <v>165</v>
+      </c>
+      <c r="N12" s="24">
         <v>188</v>
       </c>
-      <c r="E6" s="15">
-        <v>129</v>
-      </c>
-      <c r="F6" s="15">
-        <v>175</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1706</v>
-      </c>
-      <c r="H6" s="15">
-        <v>177</v>
-      </c>
-      <c r="I6" s="15">
-        <v>163</v>
-      </c>
-      <c r="J6" s="15">
-        <v>203</v>
-      </c>
-      <c r="K6" s="15">
-        <v>174</v>
-      </c>
-      <c r="L6" s="15">
+      <c r="O12" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="21" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="24">
+        <v>76</v>
+      </c>
+      <c r="D13" s="24">
+        <v>89</v>
+      </c>
+      <c r="E13" s="24">
+        <v>53</v>
+      </c>
+      <c r="F13" s="20">
+        <v>76</v>
+      </c>
+      <c r="G13" s="24">
+        <v>93</v>
+      </c>
+      <c r="H13" s="21">
+        <v>80</v>
+      </c>
+      <c r="I13" s="21">
+        <v>80</v>
+      </c>
+      <c r="J13" s="21">
+        <v>101</v>
+      </c>
+      <c r="K13" s="21">
+        <v>81</v>
+      </c>
+      <c r="L13" s="21">
+        <v>72</v>
+      </c>
+      <c r="M13" s="21">
+        <v>74</v>
+      </c>
+      <c r="N13" s="21">
+        <v>83</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="21" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="24">
+        <v>77</v>
+      </c>
+      <c r="D14" s="24">
+        <v>95</v>
+      </c>
+      <c r="E14" s="24">
+        <v>72</v>
+      </c>
+      <c r="F14" s="20">
+        <v>99</v>
+      </c>
+      <c r="G14" s="24">
+        <v>100</v>
+      </c>
+      <c r="H14" s="24">
+        <v>98</v>
+      </c>
+      <c r="I14" s="24">
+        <v>83</v>
+      </c>
+      <c r="J14" s="21">
+        <v>102</v>
+      </c>
+      <c r="K14" s="21">
+        <v>95</v>
+      </c>
+      <c r="L14" s="21">
+        <v>83</v>
+      </c>
+      <c r="M14" s="21">
+        <v>91</v>
+      </c>
+      <c r="N14" s="21">
+        <v>105</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="29.25" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="29">
+        <v>9.1922256601279706</v>
+      </c>
+      <c r="D15" s="29">
+        <v>11.053042590256503</v>
+      </c>
+      <c r="E15" s="29">
+        <v>7.4899634489783686</v>
+      </c>
+      <c r="F15" s="29">
+        <v>10.469011725293132</v>
+      </c>
+      <c r="G15" s="29">
+        <v>11.530993278566093</v>
+      </c>
+      <c r="H15" s="29">
+        <v>10.610395803528851</v>
+      </c>
+      <c r="I15" s="29">
+        <v>9.6974744920724643</v>
+      </c>
+      <c r="J15" s="29">
+        <v>12.071477418012071</v>
+      </c>
+      <c r="K15" s="29">
+        <v>10.481805729259722</v>
+      </c>
+      <c r="L15" s="29">
+        <v>9.2611955904759071</v>
+      </c>
+      <c r="M15" s="29">
+        <v>9.9063400576368892</v>
+      </c>
+      <c r="N15" s="29">
+        <v>11.342725270747232</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="21" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="21">
+        <v>606</v>
+      </c>
+      <c r="I16" s="21">
+        <v>595</v>
+      </c>
+      <c r="J16" s="21">
+        <v>593</v>
+      </c>
+      <c r="K16" s="21">
+        <v>579</v>
+      </c>
+      <c r="L16" s="21">
+        <v>564</v>
+      </c>
+      <c r="M16" s="21">
+        <v>572</v>
+      </c>
+      <c r="N16" s="21">
+        <v>566</v>
+      </c>
+      <c r="O16" s="21">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="20">
+        <v>451</v>
+      </c>
+      <c r="I17" s="20">
+        <v>441</v>
+      </c>
+      <c r="J17" s="20">
+        <v>443</v>
+      </c>
+      <c r="K17" s="20">
+        <v>440</v>
+      </c>
+      <c r="L17" s="20">
+        <v>427</v>
+      </c>
+      <c r="M17" s="20">
+        <v>434</v>
+      </c>
+      <c r="N17" s="21">
+        <v>432</v>
+      </c>
+      <c r="O17" s="21">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="22">
         <v>155</v>
       </c>
-      <c r="M6" s="15">
-        <v>165</v>
-      </c>
-      <c r="N6" s="15">
-        <v>188</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2">
-        <v>90</v>
-      </c>
-      <c r="E7" s="2">
-        <v>56</v>
-      </c>
-      <c r="F7" s="16">
-        <v>77</v>
-      </c>
-      <c r="G7" s="2">
-        <v>872</v>
-      </c>
-      <c r="H7" s="11">
-        <v>79</v>
-      </c>
-      <c r="I7" s="11">
-        <v>80</v>
-      </c>
-      <c r="J7" s="11">
-        <v>101</v>
-      </c>
-      <c r="K7" s="11">
-        <v>81</v>
-      </c>
-      <c r="L7" s="11">
-        <v>72</v>
-      </c>
-      <c r="M7" s="11">
-        <v>74</v>
-      </c>
-      <c r="N7" s="11">
-        <v>83</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2">
-        <v>98</v>
-      </c>
-      <c r="E8" s="2">
-        <v>73</v>
-      </c>
-      <c r="F8" s="16">
-        <v>98</v>
-      </c>
-      <c r="G8" s="2">
-        <v>853</v>
-      </c>
-      <c r="H8" s="2">
-        <v>98</v>
-      </c>
-      <c r="I8" s="2">
-        <v>83</v>
-      </c>
-      <c r="J8" s="11">
-        <v>102</v>
-      </c>
-      <c r="K8" s="11">
-        <v>93</v>
-      </c>
-      <c r="L8" s="11">
-        <v>83</v>
-      </c>
-      <c r="M8" s="11">
-        <v>91</v>
-      </c>
-      <c r="N8" s="11">
-        <v>105</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="25">
-        <v>9.1</v>
-      </c>
-      <c r="D9" s="25">
-        <v>11.3</v>
-      </c>
-      <c r="E9" s="25">
-        <v>7.7</v>
-      </c>
-      <c r="F9" s="25">
-        <v>10.5</v>
-      </c>
-      <c r="G9" s="25">
-        <v>11.5</v>
-      </c>
-      <c r="H9" s="25">
-        <v>10.6</v>
-      </c>
-      <c r="I9" s="25">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J9" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="K9" s="25">
-        <v>10.3</v>
-      </c>
-      <c r="L9" s="25">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M9" s="25">
-        <v>9.9</v>
-      </c>
-      <c r="N9" s="25">
-        <v>11.3427252707472</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="11">
-        <v>606</v>
-      </c>
-      <c r="I10" s="11">
-        <v>595</v>
-      </c>
-      <c r="J10" s="11">
-        <v>593</v>
-      </c>
-      <c r="K10" s="11">
-        <v>579</v>
-      </c>
-      <c r="L10" s="11">
-        <v>564</v>
-      </c>
-      <c r="M10" s="11">
-        <v>572</v>
-      </c>
-      <c r="N10" s="11">
-        <v>566</v>
-      </c>
-      <c r="O10" s="11">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="16">
-        <v>451</v>
-      </c>
-      <c r="I11" s="16">
-        <v>441</v>
-      </c>
-      <c r="J11" s="16">
-        <v>443</v>
-      </c>
-      <c r="K11" s="16">
-        <v>440</v>
-      </c>
-      <c r="L11" s="16">
-        <v>427</v>
-      </c>
-      <c r="M11" s="16">
-        <v>434</v>
-      </c>
-      <c r="N11" s="11">
-        <v>432</v>
-      </c>
-      <c r="O11" s="11">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="21" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="19">
-        <v>155</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="I18" s="22">
         <v>154</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J18" s="22">
         <v>150</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K18" s="22">
         <v>139</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L18" s="22">
         <v>137</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M18" s="22">
         <v>138</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N18" s="22">
         <v>134</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O18" s="25">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="O14" s="13"/>
+    <row r="19" spans="1:15">
+      <c r="A19" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="D23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>